--- a/Projects_Link/Projects_Link.xlsx
+++ b/Projects_Link/Projects_Link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD58B4F-2FA3-4331-85C1-E75E4522A952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E23AC-8B49-4588-9DF8-221CB9EF341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4EEB6F4-B3C5-4BB6-BCE0-A19B869A8EAC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Guess My Number Game</t>
   </si>
@@ -67,10 +67,16 @@
     <t>https://github.com/Lohi26/MyPortfolio</t>
   </si>
   <si>
-    <t>Onlinr Library Management System</t>
-  </si>
-  <si>
-    <t>https://github.com/Lohi26/miniproject</t>
+    <t>Hospital Management System</t>
+  </si>
+  <si>
+    <t>https://github.com/Lohi26/miniproject/tree/main/717821p231</t>
+  </si>
+  <si>
+    <t>https://github.com/Lohi26/Library-Management-System</t>
+  </si>
+  <si>
+    <t>Online Library Management System</t>
   </si>
 </sst>
 </file>
@@ -433,64 +439,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F57E9-8DB4-40D1-B64D-93BB87FF364B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.77734375" customWidth="1"/>
-    <col min="2" max="2" width="44.21875" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -500,8 +514,10 @@
     <hyperlink ref="B1" r:id="rId3" xr:uid="{C3EBFA28-2CBA-4035-911F-26D768E6AE50}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{48AD92D3-633B-499D-976A-F1DD471E55B4}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{E5A8B0A4-BEDC-46C1-B0AD-0FCB33317C89}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{AE2C45BF-B3A2-4884-A4F0-66C532532F21}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{7C53B306-0F76-43B4-B881-37E62D706CD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>